--- a/src/main/resources/io/alw/css/cashflowconsumer/processor/rule/RevisionTypeResolver.drl.xlsx
+++ b/src/main/resources/io/alw/css/cashflowconsumer/processor/rule/RevisionTypeResolver.drl.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">RuleSet</t>
   </si>
   <si>
-    <t xml:space="preserve">io.alw.css.cashflowconsumer.mapper.rule</t>
+    <t xml:space="preserve">io.alw.css.cashflowconsumer.processor.rule</t>
   </si>
   <si>
     <t xml:space="preserve">Unit</t>
@@ -597,10 +597,10 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.88"/>
@@ -1183,7 +1183,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.71"/>

--- a/src/main/resources/io/alw/css/cashflowconsumer/processor/rule/RevisionTypeResolver.drl.xlsx
+++ b/src/main/resources/io/alw/css/cashflowconsumer/processor/rule/RevisionTypeResolver.drl.xlsx
@@ -597,10 +597,10 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.88"/>
@@ -1183,10 +1183,9 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
